--- a/Code/Results/Cases/Case_1_142/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_142/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.219803940679071</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.962156634124085</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.4458463743327314</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>10.20143325660274</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.002262188176948793</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.961193417866525</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.069997499266549</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.8365037704559768</v>
+      </c>
+      <c r="E3">
+        <v>0.3839303037647994</v>
+      </c>
+      <c r="F3">
+        <v>8.971073824027258</v>
+      </c>
+      <c r="G3">
+        <v>0.002292580828655577</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>3.481483530427994</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0.9775436500530645</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.7611049410724036</v>
+      </c>
+      <c r="E4">
+        <v>0.3467450935371517</v>
+      </c>
+      <c r="F4">
+        <v>8.234177258725538</v>
+      </c>
+      <c r="G4">
+        <v>0.0023118492310552</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>3.186307868167489</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0.9397517899388959</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.730766063620365</v>
+      </c>
+      <c r="E5">
+        <v>0.3317727812344629</v>
+      </c>
+      <c r="F5">
+        <v>7.938027056214651</v>
+      </c>
+      <c r="G5">
+        <v>0.002319859200419272</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>3.06587693359225</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0.9334695415141141</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.7257501818318701</v>
+      </c>
+      <c r="E6">
+        <v>0.3292967917133183</v>
+      </c>
+      <c r="F6">
+        <v>7.889087161741202</v>
+      </c>
+      <c r="G6">
+        <v>0.002321198935318429</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>3.04587117873993</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0.9770344427033137</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.7606942824760381</v>
+      </c>
+      <c r="E7">
+        <v>0.3465424744645134</v>
+      </c>
+      <c r="F7">
+        <v>8.230167166874878</v>
+      </c>
+      <c r="G7">
+        <v>0.002311956610156162</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>3.184684259837752</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.168250105382356</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.9184338710338693</v>
+      </c>
+      <c r="E8">
+        <v>0.424307433679374</v>
+      </c>
+      <c r="F8">
+        <v>9.773026510490354</v>
+      </c>
+      <c r="G8">
+        <v>0.002272544830137985</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>3.795928923952232</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.539389405565316</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1.244365504398274</v>
+      </c>
+      <c r="E9">
+        <v>0.5848117695389448</v>
+      </c>
+      <c r="F9">
+        <v>12.97191919808239</v>
+      </c>
+      <c r="G9">
+        <v>0.002199816190164405</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>4.989014804984947</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.809644099351601</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1.49817501341397</v>
+      </c>
+      <c r="E10">
+        <v>0.7098273924807614</v>
+      </c>
+      <c r="F10">
+        <v>15.46875785442182</v>
+      </c>
+      <c r="G10">
+        <v>0.00214875892039311</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>5.861568061238756</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.932050532541837</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1.617845959707608</v>
+      </c>
+      <c r="E11">
+        <v>0.7688136130821306</v>
+      </c>
+      <c r="F11">
+        <v>16.64702618999752</v>
+      </c>
+      <c r="G11">
+        <v>0.002125945549857217</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>6.25753114434076</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.978324344475823</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1.663873063842175</v>
+      </c>
+      <c r="E12">
+        <v>0.7915099086972788</v>
+      </c>
+      <c r="F12">
+        <v>17.10032549300035</v>
+      </c>
+      <c r="G12">
+        <v>0.00211735638729819</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>6.407322560668433</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.968361989861023</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1.653926892227219</v>
+      </c>
+      <c r="E13">
+        <v>0.7866049050619921</v>
+      </c>
+      <c r="F13">
+        <v>17.0023653813555</v>
+      </c>
+      <c r="G13">
+        <v>0.002119204169922707</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>6.375069214559801</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.935859098657374</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1.621617751266228</v>
+      </c>
+      <c r="E14">
+        <v>0.7706733026041235</v>
+      </c>
+      <c r="F14">
+        <v>16.68417052974985</v>
+      </c>
+      <c r="G14">
+        <v>0.002125237976614789</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>6.269857673435638</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.915939811074622</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1.601923321132119</v>
+      </c>
+      <c r="E15">
+        <v>0.7609633214939606</v>
+      </c>
+      <c r="F15">
+        <v>16.49022585936302</v>
+      </c>
+      <c r="G15">
+        <v>0.00212894003229566</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>6.205392518134602</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.801633628444165</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1.490447620010002</v>
+      </c>
+      <c r="E16">
+        <v>0.7060196344223328</v>
+      </c>
+      <c r="F16">
+        <v>15.39269276297034</v>
+      </c>
+      <c r="G16">
+        <v>0.002150257341324077</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>5.835670441680065</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.731372246120827</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1.423209821040871</v>
+      </c>
+      <c r="E17">
+        <v>0.672892408822463</v>
+      </c>
+      <c r="F17">
+        <v>14.7309412752619</v>
+      </c>
+      <c r="G17">
+        <v>0.00216343409495481</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>5.608601612490361</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.690909632147623</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1.384925817277519</v>
+      </c>
+      <c r="E18">
+        <v>0.6540339565854651</v>
+      </c>
+      <c r="F18">
+        <v>14.35424649662457</v>
+      </c>
+      <c r="G18">
+        <v>0.002171052513261884</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>5.477907426102718</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.67720114300198</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1.372027423674069</v>
+      </c>
+      <c r="E19">
+        <v>0.6476808146103679</v>
+      </c>
+      <c r="F19">
+        <v>14.22734992692494</v>
+      </c>
+      <c r="G19">
+        <v>0.002173639036406534</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>5.433641513037287</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.738856893520449</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1.430326383861825</v>
+      </c>
+      <c r="E20">
+        <v>0.6763982537082001</v>
+      </c>
+      <c r="F20">
+        <v>14.8009724992794</v>
+      </c>
+      <c r="G20">
+        <v>0.002162027384752784</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>5.632782903627174</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.945408141630708</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1.631087546550361</v>
+      </c>
+      <c r="E21">
+        <v>0.7753425657400186</v>
+      </c>
+      <c r="F21">
+        <v>16.77743024407653</v>
+      </c>
+      <c r="G21">
+        <v>0.00212346443360316</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>6.300765052729787</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>2.079940855282587</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1.766496122056253</v>
+      </c>
+      <c r="E22">
+        <v>0.8421352034685583</v>
+      </c>
+      <c r="F22">
+        <v>18.1112013327471</v>
+      </c>
+      <c r="G22">
+        <v>0.002098546009986494</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>6.736443306619606</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>2.008181005423353</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1.693803338916723</v>
+      </c>
+      <c r="E23">
+        <v>0.8062718020248951</v>
+      </c>
+      <c r="F23">
+        <v>17.39512490472509</v>
+      </c>
+      <c r="G23">
+        <v>0.002111822893887206</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>6.503998686294835</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.735473297350211</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1.427107835139736</v>
+      </c>
+      <c r="E24">
+        <v>0.674812683368657</v>
+      </c>
+      <c r="F24">
+        <v>14.76929976168378</v>
+      </c>
+      <c r="G24">
+        <v>0.002162663223747259</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>5.621851005971507</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.439406031741498</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1.154007660763</v>
+      </c>
+      <c r="E25">
+        <v>0.540321076699243</v>
+      </c>
+      <c r="F25">
+        <v>12.08402978244385</v>
+      </c>
+      <c r="G25">
+        <v>0.002219042285101898</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>4.666914883151151</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
